--- a/Mart-Elektronik-Programming Datasheet-Güncel.xlsx
+++ b/Mart-Elektronik-Programming Datasheet-Güncel.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mart Elektronik\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D953EB-B81B-4427-BF1B-DC1F4A25CD3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MENÜ" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DEV" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="DCR" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="M1CON" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="M2CON" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="L1CON" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="L2CON" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="MENÜ" sheetId="1" r:id="rId1"/>
+    <sheet name="DEV" sheetId="2" r:id="rId2"/>
+    <sheet name="DCR" sheetId="3" r:id="rId3"/>
+    <sheet name="M1CON" sheetId="4" r:id="rId4"/>
+    <sheet name="M2CON" sheetId="5" r:id="rId5"/>
+    <sheet name="L1CON" sheetId="6" r:id="rId6"/>
+    <sheet name="L2CON" sheetId="7" r:id="rId7"/>
+    <sheet name="TEST" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,529 +34,529 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="287">
   <si>
-    <t xml:space="preserve">HEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMBER OF CELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUZZER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.PEDAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOTOR 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUZZER + LIGHT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUZZER + LIGHT 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0010100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0011001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0011110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0101000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0101101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0110010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0110111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0111100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1011010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1011111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEV : DEVICE VERSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REV&lt;7:4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VER&lt;3:0&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELL2PRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELL1PRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 3-0 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VER : Device Version Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000 : ERROR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001 : V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0010 : V12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etc…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 7-4 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REV : Device Revision Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001 : R0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0010 : R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 9 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX1 : Receiver 1 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Normal Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Obstacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 10 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX1 : Transmitter 1 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 11 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX2 : Receiver 2 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 12 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX2 : Transmitter 2 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 13 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1 : PEDAL 1 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Not Pressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Pressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 14 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 : PEDAL 2 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 15 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALM : ALARM Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : No Alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 23-16 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELL1PRC : CELL 1 INTENSITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% PERCENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 31-24 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELL2PRC : CELL 2 INTENSITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCR : DEVICE CONFIGURATION REGISTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERCADONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELAY&lt;14:8&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x029A</t>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>Power On</t>
+  </si>
+  <si>
+    <t>1. Press</t>
+  </si>
+  <si>
+    <t>2. Press</t>
+  </si>
+  <si>
+    <t>3. Press</t>
+  </si>
+  <si>
+    <t>NUMBER OF CELL</t>
+  </si>
+  <si>
+    <t>ALARM</t>
+  </si>
+  <si>
+    <t>BUZZER</t>
+  </si>
+  <si>
+    <t>DELAY</t>
+  </si>
+  <si>
+    <t>0000101</t>
+  </si>
+  <si>
+    <t>R.PEDAL</t>
+  </si>
+  <si>
+    <t>F.SWITCH</t>
+  </si>
+  <si>
+    <t>MOTOR 2</t>
+  </si>
+  <si>
+    <t>ON OFF</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>BUZZER + LIGHT 1</t>
+  </si>
+  <si>
+    <t>0001010</t>
+  </si>
+  <si>
+    <t>SYNC</t>
+  </si>
+  <si>
+    <t>BUZZER + LIGHT 2</t>
+  </si>
+  <si>
+    <t>0001111</t>
+  </si>
+  <si>
+    <t>PEDAL</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>0010100</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>0011001</t>
+  </si>
+  <si>
+    <t>0011110</t>
+  </si>
+  <si>
+    <t>PASSIVE</t>
+  </si>
+  <si>
+    <t>0100011</t>
+  </si>
+  <si>
+    <t>LIGHT 1</t>
+  </si>
+  <si>
+    <t>0101000</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>0101101</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>0110010</t>
+  </si>
+  <si>
+    <t>0110111</t>
+  </si>
+  <si>
+    <t>LIGHT 2</t>
+  </si>
+  <si>
+    <t>0111100</t>
+  </si>
+  <si>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>1000110</t>
+  </si>
+  <si>
+    <t>1001011</t>
+  </si>
+  <si>
+    <t>1010000</t>
+  </si>
+  <si>
+    <t>1010101</t>
+  </si>
+  <si>
+    <t>1011010</t>
+  </si>
+  <si>
+    <t>1011111</t>
+  </si>
+  <si>
+    <t>DEV : DEVICE VERSION</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Bit 15</t>
+  </si>
+  <si>
+    <t>Bit 14</t>
+  </si>
+  <si>
+    <t>Bit 13</t>
+  </si>
+  <si>
+    <t>Bit 12</t>
+  </si>
+  <si>
+    <t>Bit 11</t>
+  </si>
+  <si>
+    <t>Bit 10</t>
+  </si>
+  <si>
+    <t>Bit 9</t>
+  </si>
+  <si>
+    <t>Bit 8</t>
+  </si>
+  <si>
+    <t>Bit 7</t>
+  </si>
+  <si>
+    <t>Bit 6</t>
+  </si>
+  <si>
+    <t>Bit 5</t>
+  </si>
+  <si>
+    <t>Bit 4</t>
+  </si>
+  <si>
+    <t>Bit 3</t>
+  </si>
+  <si>
+    <t>Bit 2</t>
+  </si>
+  <si>
+    <t>Bit 1</t>
+  </si>
+  <si>
+    <t>Bit 0</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>ALM</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>TX2</t>
+  </si>
+  <si>
+    <t>RX2</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>RX1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>REV&lt;7:4&gt;</t>
+  </si>
+  <si>
+    <t>VER&lt;3:0&gt;</t>
+  </si>
+  <si>
+    <t>Bit 31</t>
+  </si>
+  <si>
+    <t>Bit 30</t>
+  </si>
+  <si>
+    <t>Bit 29</t>
+  </si>
+  <si>
+    <t>Bit 28</t>
+  </si>
+  <si>
+    <t>Bit 27</t>
+  </si>
+  <si>
+    <t>Bit 26</t>
+  </si>
+  <si>
+    <t>Bit 25</t>
+  </si>
+  <si>
+    <t>Bit 24</t>
+  </si>
+  <si>
+    <t>Bit 23</t>
+  </si>
+  <si>
+    <t>Bit 22</t>
+  </si>
+  <si>
+    <t>Bit 21</t>
+  </si>
+  <si>
+    <t>Bit 20</t>
+  </si>
+  <si>
+    <t>Bit 19</t>
+  </si>
+  <si>
+    <t>Bit 18</t>
+  </si>
+  <si>
+    <t>Bit 17</t>
+  </si>
+  <si>
+    <t>Bit 16</t>
+  </si>
+  <si>
+    <t>CELL2PRC</t>
+  </si>
+  <si>
+    <t>CELL1PRC</t>
+  </si>
+  <si>
+    <t>Bit 3-0 :</t>
+  </si>
+  <si>
+    <t>VER : Device Version Number</t>
+  </si>
+  <si>
+    <t>0000 : ERROR</t>
+  </si>
+  <si>
+    <t>0001 : V11</t>
+  </si>
+  <si>
+    <t>0010 : V12</t>
+  </si>
+  <si>
+    <t>etc…</t>
+  </si>
+  <si>
+    <t>Bit 7-4 :</t>
+  </si>
+  <si>
+    <t>REV : Device Revision Number</t>
+  </si>
+  <si>
+    <t>0001 : R0</t>
+  </si>
+  <si>
+    <t>0010 : R1</t>
+  </si>
+  <si>
+    <t>Bit 9 :</t>
+  </si>
+  <si>
+    <t>RX1 : Receiver 1 Status</t>
+  </si>
+  <si>
+    <t>0 : Normal Operation</t>
+  </si>
+  <si>
+    <t>1 : Obstacle</t>
+  </si>
+  <si>
+    <t>Bit 10 :</t>
+  </si>
+  <si>
+    <t>TX1 : Transmitter 1 Status</t>
+  </si>
+  <si>
+    <t>1 : Error</t>
+  </si>
+  <si>
+    <t>Bit 11 :</t>
+  </si>
+  <si>
+    <t>RX2 : Receiver 2 Status</t>
+  </si>
+  <si>
+    <t>Bit 12 :</t>
+  </si>
+  <si>
+    <t>TX2 : Transmitter 2 Status</t>
+  </si>
+  <si>
+    <t>Bit 13 :</t>
+  </si>
+  <si>
+    <t>P1 : PEDAL 1 Status</t>
+  </si>
+  <si>
+    <t>0 : Not Pressed</t>
+  </si>
+  <si>
+    <t>1 : Pressed</t>
+  </si>
+  <si>
+    <t>Bit 14 :</t>
+  </si>
+  <si>
+    <t>P2 : PEDAL 2 Status</t>
+  </si>
+  <si>
+    <t>Bit 15 :</t>
+  </si>
+  <si>
+    <t>ALM : ALARM Status</t>
+  </si>
+  <si>
+    <t>0 : No Alarm</t>
+  </si>
+  <si>
+    <t>1 : Alarm</t>
+  </si>
+  <si>
+    <t>Bit 23-16 :</t>
+  </si>
+  <si>
+    <t>CELL1PRC : CELL 1 INTENSITY</t>
+  </si>
+  <si>
+    <t>% PERCENT</t>
+  </si>
+  <si>
+    <t>Bit 31-24 :</t>
+  </si>
+  <si>
+    <t>CELL2PRC : CELL 2 INTENSITY</t>
+  </si>
+  <si>
+    <t>DCR : DEVICE CONFIGURATION REGISTER</t>
+  </si>
+  <si>
+    <t>MERCADONA</t>
+  </si>
+  <si>
+    <t>0x0298</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>DELAY&lt;14:8&gt;</t>
+  </si>
+  <si>
+    <t>L2F</t>
+  </si>
+  <si>
+    <t>L1F</t>
+  </si>
+  <si>
+    <t>BZR</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>CELL</t>
+  </si>
+  <si>
+    <t>LIDL</t>
+  </si>
+  <si>
+    <t>0x029A</t>
   </si>
   <si>
     <t xml:space="preserve">Bit 0 : </t>
   </si>
   <si>
-    <t xml:space="preserve">CELL : Number of Photocell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : One Photocell is used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Two Photocells are used</t>
+    <t>CELL : Number of Photocell</t>
+  </si>
+  <si>
+    <t>0 : One Photocell is used</t>
+  </si>
+  <si>
+    <t>1 : Two Photocells are used</t>
   </si>
   <si>
     <t xml:space="preserve">Bit 1 : </t>
   </si>
   <si>
-    <t xml:space="preserve">FPR : Front Pedal Restart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Restart not need after Front Pedal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Restart need after Front Pedal</t>
+    <t>FPR : Front Pedal Restart</t>
+  </si>
+  <si>
+    <t>0 : Restart not need after Front Pedal</t>
+  </si>
+  <si>
+    <t>1 : Restart need after Front Pedal</t>
   </si>
   <si>
     <t xml:space="preserve">Bit 2 : </t>
   </si>
   <si>
-    <t xml:space="preserve">RP : Rear Pedal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Rear Pedal is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Rear Pedal is active</t>
+    <t>RP : Rear Pedal</t>
+  </si>
+  <si>
+    <t>0 : Rear Pedal is inactive</t>
+  </si>
+  <si>
+    <t>1 : Rear Pedal is active</t>
   </si>
   <si>
     <t xml:space="preserve">Bit 3 : </t>
   </si>
   <si>
-    <t xml:space="preserve">FS : Flap Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Flap Switch is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Flap Switch is active</t>
+    <t>FS : Flap Switch</t>
+  </si>
+  <si>
+    <t>0 : Flap Switch is inactive</t>
+  </si>
+  <si>
+    <t>1 : Flap Switch is active</t>
   </si>
   <si>
     <t xml:space="preserve">Bit 4 : </t>
   </si>
   <si>
-    <t xml:space="preserve">BZR : Buzzer Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Buzzer is off when alarm occured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Buzzer is on when alarm occured</t>
+    <t>BZR : Buzzer Status</t>
+  </si>
+  <si>
+    <t>0 : Buzzer is off when alarm occured</t>
+  </si>
+  <si>
+    <t>1 : Buzzer is on when alarm occured</t>
   </si>
   <si>
     <t xml:space="preserve">Bit 5 : </t>
   </si>
   <si>
-    <t xml:space="preserve">L1F : Light 1 Flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Light 1 off when alarm occured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Light 1 blink when alarm occured</t>
+    <t>L1F : Light 1 Flash</t>
+  </si>
+  <si>
+    <t>0 : Light 1 off when alarm occured</t>
+  </si>
+  <si>
+    <t>1 : Light 1 blink when alarm occured</t>
   </si>
   <si>
     <t xml:space="preserve">Bit 6 : </t>
   </si>
   <si>
-    <t xml:space="preserve">L2F : Light 2 Flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Light 2 off when alarm occured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Light 2 blink when alarm occured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 13-7 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELAY : Photocell Delay Time (Second)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondx10</t>
+    <t>L2F : Light 2 Flash</t>
+  </si>
+  <si>
+    <t>0 : Light 2 off when alarm occured</t>
+  </si>
+  <si>
+    <t>1 : Light 2 blink when alarm occured</t>
+  </si>
+  <si>
+    <t>Bit 13-7 :</t>
+  </si>
+  <si>
+    <t>DELAY : Photocell Delay Time (Second)</t>
+  </si>
+  <si>
+    <t>secondx10</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -560,347 +565,344 @@
     <t xml:space="preserve">M1CON : MOTOR 1 CONTROL REGISTER </t>
   </si>
   <si>
-    <t xml:space="preserve">0x10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 0 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1 : Motor 1 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Motor 1 is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Motor 1 is active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 1 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1ST : Motor 1 Soft Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Motor 1 Soft start is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Motor 1 Soft Start is active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 2 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1SP : Motor 1 Soft Stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Motor 1 Soft stop is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Motor 1 Soft Stop is active</t>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>M1CON</t>
+  </si>
+  <si>
+    <t>M1SP</t>
+  </si>
+  <si>
+    <t>M1ST</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Bit 0 :</t>
+  </si>
+  <si>
+    <t>M1 : Motor 1 Status</t>
+  </si>
+  <si>
+    <t>0 : Motor 1 is inactive</t>
+  </si>
+  <si>
+    <t>1 : Motor 1 is active</t>
+  </si>
+  <si>
+    <t>Bit 1 :</t>
+  </si>
+  <si>
+    <t>M1ST : Motor 1 Soft Start</t>
+  </si>
+  <si>
+    <t>0 : Motor 1 Soft start is inactive</t>
+  </si>
+  <si>
+    <t>1 : Motor 1 Soft Start is active</t>
+  </si>
+  <si>
+    <t>Bit 2 :</t>
+  </si>
+  <si>
+    <t>M1SP : Motor 1 Soft Stop</t>
+  </si>
+  <si>
+    <t>0 : Motor 1 Soft stop is inactive</t>
+  </si>
+  <si>
+    <t>1 : Motor 1 Soft Stop is active</t>
   </si>
   <si>
     <t xml:space="preserve">M2CON : MOTOR 2 CONTROL REGISTER </t>
   </si>
   <si>
-    <t xml:space="preserve">0x12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2PR3&lt;15:13&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2PR2&lt;12:10&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2PR1&lt;9:7&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2PON&lt;6:4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2 : Motor 2 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Motor 2 is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Motor 2 is active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2ST : Motor 2 Soft Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Motor 2 Soft start is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Motor 2 Soft Start is active</t>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t>M2CON</t>
+  </si>
+  <si>
+    <t>M2PR3&lt;15:13&gt;</t>
+  </si>
+  <si>
+    <t>M2PR2&lt;12:10&gt;</t>
+  </si>
+  <si>
+    <t>M2PR1&lt;9:7&gt;</t>
+  </si>
+  <si>
+    <t>M2PON&lt;6:4&gt;</t>
+  </si>
+  <si>
+    <t>M2ST</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M2 : Motor 2 Status</t>
+  </si>
+  <si>
+    <t>0 : Motor 2 is inactive</t>
+  </si>
+  <si>
+    <t>1 : Motor 2 is active</t>
+  </si>
+  <si>
+    <t>M2ST : Motor 2 Soft Start</t>
+  </si>
+  <si>
+    <t>0 : Motor 2 Soft start is inactive</t>
+  </si>
+  <si>
+    <t>1 : Motor 2 Soft Start is active</t>
   </si>
   <si>
     <t xml:space="preserve">Bit &lt;4:2&gt; : </t>
   </si>
   <si>
-    <t xml:space="preserve">M2PON : Motor 2 Power-On Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000 : AUTO mode (Automatic cycle with front belt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001 : SYNC mode (Synchronize with front belt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010 : PEDAL mode (Turn on with rear pedal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011 : RUN mode (Turn on)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 : OFF mode (Turn off)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 : N/A mode (inactive mode)</t>
+    <t>M2PON : Motor 2 Power-On Status</t>
+  </si>
+  <si>
+    <t>000 : AUTO mode (Automatic cycle with front belt)</t>
+  </si>
+  <si>
+    <t>001 : SYNC mode (Synchronize with front belt)</t>
+  </si>
+  <si>
+    <t>010 : PEDAL mode (Turn on with rear pedal)</t>
+  </si>
+  <si>
+    <t>011 : RUN mode (Turn on)</t>
+  </si>
+  <si>
+    <t>100 : OFF mode (Turn off)</t>
+  </si>
+  <si>
+    <t>101 : N/A mode (inactive mode)</t>
   </si>
   <si>
     <t xml:space="preserve">Bit &lt;7:5&gt; : </t>
   </si>
   <si>
-    <t xml:space="preserve">M2PR1 : Motor 2 First Press Status</t>
+    <t>M2PR1 : Motor 2 First Press Status</t>
   </si>
   <si>
     <t xml:space="preserve">Bit &lt;10:8&gt; : </t>
   </si>
   <si>
-    <t xml:space="preserve">M2PR2 : Motor 2 Second Press Status</t>
+    <t>M2PR2 : Motor 2 Second Press Status</t>
   </si>
   <si>
     <t xml:space="preserve">Bit &lt;13:11&gt; : </t>
   </si>
   <si>
-    <t xml:space="preserve">M2PR3 : Motor 2 Third Press Status</t>
+    <t>M2PR3 : Motor 2 Third Press Status</t>
   </si>
   <si>
     <t xml:space="preserve">L1CON : LIGHT CONTROL REGISTER </t>
   </si>
   <si>
-    <t xml:space="preserve">0x14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1PR3&lt;15:13&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1PR2&lt;12:10&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1PR1&lt;9:7&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1PON&lt;6:4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1 : Light 1 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Light 1 is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Light 1 is active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1PON : Light 1 Power-On Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000 : OFF mode (Turn off)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001 : ON mode (Turn On)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010 : FLASH mode (Blink the Light)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011 : N/A mode (inactive mode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1PR1 : Light 1 First Press Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1PR2 : Light 1 Second Press Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1PR3 : Light 1 Third Press Status</t>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>L1CON</t>
+  </si>
+  <si>
+    <t>L1PR3&lt;15:13&gt;</t>
+  </si>
+  <si>
+    <t>L1PR2&lt;12:10&gt;</t>
+  </si>
+  <si>
+    <t>L1PR1&lt;9:7&gt;</t>
+  </si>
+  <si>
+    <t>L1PON&lt;6:4&gt;</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L1 : Light 1 Status</t>
+  </si>
+  <si>
+    <t>0 : Light 1 is inactive</t>
+  </si>
+  <si>
+    <t>1 : Light 1 is active</t>
+  </si>
+  <si>
+    <t>L1PON : Light 1 Power-On Status</t>
+  </si>
+  <si>
+    <t>000 : OFF mode (Turn off)</t>
+  </si>
+  <si>
+    <t>001 : ON mode (Turn On)</t>
+  </si>
+  <si>
+    <t>010 : FLASH mode (Blink the Light)</t>
+  </si>
+  <si>
+    <t>011 : N/A mode (inactive mode)</t>
+  </si>
+  <si>
+    <t>L1PR1 : Light 1 First Press Status</t>
+  </si>
+  <si>
+    <t>L1PR2 : Light 1 Second Press Status</t>
+  </si>
+  <si>
+    <t>L1PR3 : Light 1 Third Press Status</t>
   </si>
   <si>
     <t xml:space="preserve">L2CON : LIGHT CONTROL REGISTER </t>
   </si>
   <si>
-    <t xml:space="preserve">0x16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2PR3&lt;15:13&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2PR2&lt;12:10&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2PR1&lt;9:7&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2PON&lt;6:4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2 : Light 2 Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Light 2 is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Light 2 is active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2PON : Light 2 Power-On Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2PR1 : Light 2 First Press Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2PR2 : Light 2 Second Press Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2PR3 : Light 2 Third Press Status</t>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>L2CON</t>
+  </si>
+  <si>
+    <t>L2PR3&lt;15:13&gt;</t>
+  </si>
+  <si>
+    <t>L2PR2&lt;12:10&gt;</t>
+  </si>
+  <si>
+    <t>L2PR1&lt;9:7&gt;</t>
+  </si>
+  <si>
+    <t>L2PON&lt;6:4&gt;</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L2 : Light 2 Status</t>
+  </si>
+  <si>
+    <t>0 : Light 2 is inactive</t>
+  </si>
+  <si>
+    <t>1 : Light 2 is active</t>
+  </si>
+  <si>
+    <t>L2PON : Light 2 Power-On Status</t>
+  </si>
+  <si>
+    <t>L2PR1 : Light 2 First Press Status</t>
+  </si>
+  <si>
+    <t>L2PR2 : Light 2 Second Press Status</t>
+  </si>
+  <si>
+    <t>L2PR3 : Light 2 Third Press Status</t>
   </si>
   <si>
     <t xml:space="preserve">TESTOUT : OUTPUT TEST REGISTER </t>
   </si>
   <si>
-    <t xml:space="preserve">0x18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTBZR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTM1 : Motor 1 Output TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Turn Off Motor 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Drive Motor 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTM2 : Motor 2 Output TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Turn Off Motor 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Drive Motor 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTL1 : Light 1 Output TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Turn Off Light 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Turn On Light 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 3 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTL2 : Light 2 Output TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Turn Off Light 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Turn On Light 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 4 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTBZR : BUZZER Output TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Turn Off Buzzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Turn On Buzzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit 7 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTCON : TEST Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 : Test mode is inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 : Test Mode is active</t>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>TESTOUT</t>
+  </si>
+  <si>
+    <t>TESTCON</t>
+  </si>
+  <si>
+    <t>TESTBZR</t>
+  </si>
+  <si>
+    <t>TESTL2</t>
+  </si>
+  <si>
+    <t>TESTL1</t>
+  </si>
+  <si>
+    <t>TESTM2</t>
+  </si>
+  <si>
+    <t>TESTM1</t>
+  </si>
+  <si>
+    <t>TESTM1 : Motor 1 Output TEST</t>
+  </si>
+  <si>
+    <t>0 : Turn Off Motor 1</t>
+  </si>
+  <si>
+    <t>1 : Drive Motor 1</t>
+  </si>
+  <si>
+    <t>TESTM2 : Motor 2 Output TEST</t>
+  </si>
+  <si>
+    <t>0 : Turn Off Motor 2</t>
+  </si>
+  <si>
+    <t>1 : Drive Motor 2</t>
+  </si>
+  <si>
+    <t>TESTL1 : Light 1 Output TEST</t>
+  </si>
+  <si>
+    <t>0 : Turn Off Light 1</t>
+  </si>
+  <si>
+    <t>1 : Turn On Light 1</t>
+  </si>
+  <si>
+    <t>Bit 3 :</t>
+  </si>
+  <si>
+    <t>TESTL2 : Light 2 Output TEST</t>
+  </si>
+  <si>
+    <t>0 : Turn Off Light 2</t>
+  </si>
+  <si>
+    <t>1 : Turn On Light 2</t>
+  </si>
+  <si>
+    <t>Bit 4 :</t>
+  </si>
+  <si>
+    <t>TESTBZR : BUZZER Output TEST</t>
+  </si>
+  <si>
+    <t>0 : Turn Off Buzzer</t>
+  </si>
+  <si>
+    <t>1 : Turn On Buzzer</t>
+  </si>
+  <si>
+    <t>Bit 7 :</t>
+  </si>
+  <si>
+    <t>TESTCON : TEST Control</t>
+  </si>
+  <si>
+    <t>0 : Test mode is inactive</t>
+  </si>
+  <si>
+    <t>1 : Test Mode is active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -909,25 +911,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -935,7 +919,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -957,7 +941,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -971,8 +955,8 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1051,439 +1035,369 @@
     </fill>
   </fills>
   <borders count="15">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1542,37 +1456,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.57"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1810,7 @@
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -1600,7 +1822,7 @@
       <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="9">
         <v>0.5</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1614,7 +1836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -1633,20 +1855,20 @@
       <c r="F3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="16" t="n">
+      <c r="I3" s="16">
         <v>2</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="9">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
@@ -1662,14 +1884,14 @@
       <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="9">
         <v>1.5</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
@@ -1685,14 +1907,14 @@
       <c r="L5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="9">
         <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C6" s="19" t="s">
         <v>23</v>
       </c>
@@ -1705,14 +1927,14 @@
       <c r="F6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="9">
         <v>2.5</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
@@ -1725,14 +1947,14 @@
       <c r="F7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="9">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C8" s="10"/>
       <c r="D8" s="21" t="s">
         <v>26</v>
@@ -1743,14 +1965,14 @@
       <c r="F8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="9">
         <v>3.5</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
@@ -1769,14 +1991,14 @@
       <c r="F9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="9">
         <v>4</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
@@ -1789,14 +2011,14 @@
       <c r="F10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="9">
         <v>4.5</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C11" s="17" t="s">
         <v>32</v>
       </c>
@@ -1809,14 +2031,14 @@
       <c r="F11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="9">
         <v>5</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C12" s="10"/>
       <c r="D12" s="21" t="s">
         <v>26</v>
@@ -1827,14 +2049,14 @@
       <c r="F12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="O12" s="9">
         <v>5.5</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
@@ -1853,14 +2075,14 @@
       <c r="F13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="9">
         <v>6</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C14" s="19" t="s">
         <v>30</v>
       </c>
@@ -1873,14 +2095,14 @@
       <c r="F14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="9">
         <v>6.5</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
@@ -1893,14 +2115,14 @@
       <c r="F15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="9">
         <v>7</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C16" s="10"/>
       <c r="D16" s="21" t="s">
         <v>26</v>
@@ -1911,39 +2133,39 @@
       <c r="F16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="9" t="n">
+      <c r="O16" s="9">
         <v>7.5</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O17" s="9" t="n">
+    <row r="17" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O17" s="9">
         <v>8</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O18" s="9" t="n">
+    <row r="18" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O18" s="9">
         <v>8.5</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O19" s="9" t="n">
+    <row r="19" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O19" s="9">
         <v>9</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O20" s="9" t="n">
+    <row r="20" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O20" s="9">
         <v>9.5</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -1951,39 +2173,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:S52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
@@ -2039,7 +2255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>63</v>
       </c>
@@ -2083,7 +2299,7 @@
       <c r="R5" s="38"/>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="26" t="s">
@@ -2135,7 +2351,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D7" s="33"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -2157,7 +2373,7 @@
       <c r="R7" s="44"/>
       <c r="S7" s="45"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="46" t="s">
         <v>93</v>
       </c>
@@ -2167,28 +2383,28 @@
       <c r="D8" s="46"/>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C9" s="47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:19" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="46" t="s">
         <v>99</v>
       </c>
@@ -2196,28 +2412,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C15" s="47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="46" t="s">
         <v>103</v>
       </c>
@@ -2225,18 +2441,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C22" s="48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="46" t="s">
         <v>107</v>
       </c>
@@ -2244,18 +2460,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C26" s="48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="46" t="s">
         <v>110</v>
       </c>
@@ -2263,18 +2479,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C30" s="48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="46" t="s">
         <v>112</v>
       </c>
@@ -2282,18 +2498,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C34" s="48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="46" t="s">
         <v>114</v>
       </c>
@@ -2301,18 +2517,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C38" s="48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="46" t="s">
         <v>118</v>
       </c>
@@ -2320,18 +2536,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C42" s="48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="46" t="s">
         <v>120</v>
       </c>
@@ -2339,18 +2555,18 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C46" s="48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="46" t="s">
         <v>124</v>
       </c>
@@ -2358,15 +2574,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C49" s="49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C50" s="47"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="46" t="s">
         <v>127</v>
       </c>
@@ -2374,97 +2590,92 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C52" s="49" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:T53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C3" s="50"/>
-      <c r="D3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="51" t="n">
+      <c r="D3" s="51">
+        <v>0</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0</v>
+      </c>
+      <c r="H3" s="51">
         <v>1</v>
       </c>
-      <c r="I3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="51" t="n">
+      <c r="I3" s="51">
+        <v>0</v>
+      </c>
+      <c r="J3" s="51">
         <v>1</v>
       </c>
-      <c r="K3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="51" t="n">
+      <c r="K3" s="51">
+        <v>0</v>
+      </c>
+      <c r="L3" s="51">
+        <v>0</v>
+      </c>
+      <c r="M3" s="51">
         <v>1</v>
       </c>
-      <c r="N3" s="51" t="n">
+      <c r="N3" s="51">
         <v>1</v>
       </c>
-      <c r="O3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="O3" s="52">
+        <v>0</v>
+      </c>
+      <c r="P3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>130</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
@@ -2514,7 +2725,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>132</v>
       </c>
@@ -2552,59 +2763,59 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C6" s="50"/>
-      <c r="D6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="56" t="n">
+      <c r="D6" s="56">
+        <v>0</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0</v>
+      </c>
+      <c r="F6" s="56">
+        <v>0</v>
+      </c>
+      <c r="G6" s="56">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56">
         <v>1</v>
       </c>
-      <c r="I6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="56" t="n">
+      <c r="I6" s="56">
+        <v>0</v>
+      </c>
+      <c r="J6" s="56">
         <v>1</v>
       </c>
-      <c r="K6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="56" t="n">
+      <c r="K6" s="56">
+        <v>0</v>
+      </c>
+      <c r="L6" s="56">
+        <v>0</v>
+      </c>
+      <c r="M6" s="56">
         <v>1</v>
       </c>
-      <c r="N6" s="56" t="n">
+      <c r="N6" s="56">
         <v>1</v>
       </c>
-      <c r="O6" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="56" t="n">
+      <c r="O6" s="56">
+        <v>0</v>
+      </c>
+      <c r="P6" s="56">
         <v>1</v>
       </c>
-      <c r="Q6" s="52" t="n">
+      <c r="Q6" s="52">
         <v>0</v>
       </c>
       <c r="R6" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="46" t="s">
         <v>144</v>
       </c>
@@ -2612,18 +2823,18 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="46" t="s">
         <v>148</v>
       </c>
@@ -2631,18 +2842,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C14" s="48" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="46" t="s">
         <v>152</v>
       </c>
@@ -2650,18 +2861,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C18" s="48" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="46" t="s">
         <v>156</v>
       </c>
@@ -2669,18 +2880,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C22" s="48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="46" t="s">
         <v>160</v>
       </c>
@@ -2688,18 +2899,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="46" t="s">
         <v>164</v>
       </c>
@@ -2707,18 +2918,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="46" t="s">
         <v>168</v>
       </c>
@@ -2726,20 +2937,20 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="46"/>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="46"/>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="46" t="s">
         <v>172</v>
       </c>
@@ -2747,102 +2958,97 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>175</v>
       </c>
       <c r="C47" s="48"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="46"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C53" s="48"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
@@ -2892,7 +3098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>177</v>
       </c>
@@ -2942,8 +3148,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="46" t="s">
         <v>182</v>
       </c>
@@ -2953,18 +3159,18 @@
       <c r="D8" s="46"/>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="46" t="s">
         <v>186</v>
       </c>
@@ -2972,18 +3178,18 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="46" t="s">
         <v>190</v>
       </c>
@@ -2991,129 +3197,124 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="46"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="46"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C22" s="57"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C27" s="48"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C31" s="48"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C35" s="48"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:R104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="58" t="n">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D3" s="58">
         <v>1</v>
       </c>
-      <c r="E3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="58" t="n">
+      <c r="E3" s="58">
+        <v>0</v>
+      </c>
+      <c r="F3" s="58">
         <v>1</v>
       </c>
-      <c r="G3" s="58" t="n">
+      <c r="G3" s="58">
         <v>1</v>
       </c>
-      <c r="H3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="58" t="n">
+      <c r="H3" s="58">
+        <v>0</v>
+      </c>
+      <c r="I3" s="58">
+        <v>0</v>
+      </c>
+      <c r="J3" s="58">
+        <v>0</v>
+      </c>
+      <c r="K3" s="58">
         <v>1</v>
       </c>
-      <c r="L3" s="58" t="n">
+      <c r="L3" s="58">
         <v>1</v>
       </c>
-      <c r="M3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="58" t="n">
+      <c r="M3" s="58">
+        <v>0</v>
+      </c>
+      <c r="N3" s="58">
+        <v>0</v>
+      </c>
+      <c r="O3" s="58">
+        <v>0</v>
+      </c>
+      <c r="P3" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="58">
         <v>1</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
@@ -3163,7 +3364,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>195</v>
       </c>
@@ -3197,55 +3398,55 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="58" t="n">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D6" s="58">
         <v>1</v>
       </c>
-      <c r="E6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="58" t="n">
+      <c r="E6" s="58">
+        <v>0</v>
+      </c>
+      <c r="F6" s="58">
         <v>1</v>
       </c>
-      <c r="G6" s="60" t="n">
+      <c r="G6" s="60">
         <v>1</v>
       </c>
-      <c r="H6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="60" t="n">
+      <c r="H6" s="60">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
         <v>1</v>
       </c>
-      <c r="J6" s="58" t="n">
+      <c r="J6" s="58">
         <v>1</v>
       </c>
-      <c r="K6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="58" t="n">
+      <c r="K6" s="58">
+        <v>0</v>
+      </c>
+      <c r="L6" s="58">
         <v>1</v>
       </c>
-      <c r="M6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="60" t="n">
+      <c r="M6" s="60">
+        <v>0</v>
+      </c>
+      <c r="N6" s="60">
+        <v>0</v>
+      </c>
+      <c r="O6" s="60">
         <v>1</v>
       </c>
-      <c r="P6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="58" t="n">
+      <c r="P6" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="58">
         <v>1</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:18" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="46" t="s">
         <v>182</v>
       </c>
@@ -3254,18 +3455,18 @@
       </c>
       <c r="D8" s="46"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="46" t="s">
         <v>186</v>
       </c>
@@ -3273,18 +3474,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="46" t="s">
         <v>209</v>
       </c>
@@ -3292,43 +3493,43 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="46"/>
       <c r="C17" s="49" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C18" s="49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C19" s="49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C20" s="49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C21" s="49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="46"/>
       <c r="C22" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="46"/>
       <c r="C23" s="57"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="46" t="s">
         <v>217</v>
       </c>
@@ -3336,42 +3537,42 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="46"/>
       <c r="C25" s="49" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C26" s="49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C27" s="49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C28" s="49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C29" s="49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="46"/>
       <c r="C30" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="46"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="46" t="s">
         <v>219</v>
       </c>
@@ -3379,40 +3580,40 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="46"/>
       <c r="C33" s="49" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" s="49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" s="49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C36" s="49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C37" s="49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="46"/>
       <c r="C38" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="46" t="s">
         <v>221</v>
       </c>
@@ -3420,204 +3621,199 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="46"/>
       <c r="C41" s="49" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C42" s="49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" s="49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C44" s="49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C45" s="49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="46"/>
       <c r="C46" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B48" s="61"/>
       <c r="C48" s="23"/>
       <c r="D48" s="62"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
       <c r="D50" s="46"/>
       <c r="G50" s="46"/>
     </row>
-    <row r="53" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
     </row>
-    <row r="57" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="46"/>
       <c r="C74" s="57"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C77" s="57"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="46"/>
       <c r="C80" s="46"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="46"/>
       <c r="C81" s="57"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C84" s="57"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="46"/>
       <c r="C87" s="46"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="46"/>
       <c r="C88" s="57"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="46"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="46"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C91" s="57"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="46"/>
       <c r="C94" s="46"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C96" s="48"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="46"/>
       <c r="C98" s="46"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C100" s="48"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="46"/>
       <c r="C102" s="46"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C104" s="48"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.57"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="58" t="n">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D3" s="58">
+        <v>0</v>
+      </c>
+      <c r="E3" s="58">
+        <v>0</v>
+      </c>
+      <c r="F3" s="58">
+        <v>0</v>
+      </c>
+      <c r="G3" s="58">
+        <v>0</v>
+      </c>
+      <c r="H3" s="58">
+        <v>0</v>
+      </c>
+      <c r="I3" s="58">
+        <v>0</v>
+      </c>
+      <c r="J3" s="58">
+        <v>0</v>
+      </c>
+      <c r="K3" s="58">
+        <v>0</v>
+      </c>
+      <c r="L3" s="58">
         <v>1</v>
       </c>
-      <c r="M3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="58" t="n">
+      <c r="M3" s="58">
+        <v>0</v>
+      </c>
+      <c r="N3" s="58">
+        <v>0</v>
+      </c>
+      <c r="O3" s="58">
         <v>1</v>
       </c>
-      <c r="P3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="58" t="n">
+      <c r="P3" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="58">
         <v>1</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
@@ -3667,7 +3863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>224</v>
       </c>
@@ -3701,59 +3897,59 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="58" t="n">
+    <row r="6" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="70">
+        <v>0</v>
+      </c>
+      <c r="E6" s="58">
+        <v>0</v>
+      </c>
+      <c r="F6" s="58">
         <v>1</v>
       </c>
-      <c r="G6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="60" t="n">
+      <c r="G6" s="60">
+        <v>0</v>
+      </c>
+      <c r="H6" s="60">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
         <v>1</v>
       </c>
-      <c r="J6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="58" t="n">
+      <c r="J6" s="58">
+        <v>0</v>
+      </c>
+      <c r="K6" s="58">
+        <v>0</v>
+      </c>
+      <c r="L6" s="58">
+        <v>0</v>
+      </c>
+      <c r="M6" s="60">
+        <v>0</v>
+      </c>
+      <c r="N6" s="60">
+        <v>0</v>
+      </c>
+      <c r="O6" s="60">
+        <v>0</v>
+      </c>
+      <c r="P6" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="58">
         <v>1</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="61"/>
       <c r="C7" s="23"/>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="46" t="s">
         <v>182</v>
       </c>
@@ -3761,18 +3957,18 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="46" t="s">
         <v>209</v>
       </c>
@@ -3780,33 +3976,33 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="46"/>
       <c r="C13" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C14" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C15" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="46"/>
       <c r="C16" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="46"/>
       <c r="C17" s="57"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="46" t="s">
         <v>217</v>
       </c>
@@ -3814,30 +4010,30 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="46"/>
       <c r="C19" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C20" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C21" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="46"/>
       <c r="C22" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="46" t="s">
         <v>219</v>
       </c>
@@ -3845,30 +4041,30 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="46"/>
       <c r="C25" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C26" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C27" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="46"/>
       <c r="C28" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="46" t="s">
         <v>221</v>
       </c>
@@ -3876,110 +4072,105 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="46"/>
       <c r="C31" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C32" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C33" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="46"/>
       <c r="C34" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.57"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="58" t="n">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D3" s="58">
+        <v>0</v>
+      </c>
+      <c r="E3" s="58">
+        <v>0</v>
+      </c>
+      <c r="F3" s="58">
+        <v>0</v>
+      </c>
+      <c r="G3" s="58">
+        <v>0</v>
+      </c>
+      <c r="H3" s="58">
+        <v>0</v>
+      </c>
+      <c r="I3" s="58">
         <v>1</v>
       </c>
-      <c r="J3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="58" t="n">
+      <c r="J3" s="58">
+        <v>0</v>
+      </c>
+      <c r="K3" s="58">
         <v>1</v>
       </c>
-      <c r="L3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="58" t="n">
+      <c r="L3" s="58">
+        <v>0</v>
+      </c>
+      <c r="M3" s="58">
+        <v>0</v>
+      </c>
+      <c r="N3" s="58">
+        <v>0</v>
+      </c>
+      <c r="O3" s="58">
+        <v>0</v>
+      </c>
+      <c r="P3" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="58">
         <v>1</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
@@ -4029,7 +4220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>243</v>
       </c>
@@ -4064,56 +4255,56 @@
       </c>
       <c r="R5" s="71"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="61"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="58" t="n">
+      <c r="D6" s="58">
+        <v>0</v>
+      </c>
+      <c r="E6" s="58">
         <v>1</v>
       </c>
-      <c r="F6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="60" t="n">
+      <c r="F6" s="58">
+        <v>0</v>
+      </c>
+      <c r="G6" s="60">
+        <v>0</v>
+      </c>
+      <c r="H6" s="60">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
+        <v>0</v>
+      </c>
+      <c r="J6" s="72">
+        <v>0</v>
+      </c>
+      <c r="K6" s="72">
+        <v>0</v>
+      </c>
+      <c r="L6" s="72">
+        <v>0</v>
+      </c>
+      <c r="M6" s="60">
+        <v>0</v>
+      </c>
+      <c r="N6" s="60">
+        <v>0</v>
+      </c>
+      <c r="O6" s="60">
         <v>1</v>
       </c>
-      <c r="P6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="58" t="n">
+      <c r="P6" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="58">
         <v>1</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="46" t="s">
         <v>182</v>
       </c>
@@ -4121,18 +4312,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="46" t="s">
         <v>209</v>
       </c>
@@ -4140,33 +4331,33 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="46"/>
       <c r="C12" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C13" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C14" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="46"/>
       <c r="C15" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="46"/>
       <c r="C16" s="57"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="46" t="s">
         <v>217</v>
       </c>
@@ -4174,30 +4365,30 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="46"/>
       <c r="C18" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C19" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C20" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="46"/>
       <c r="C21" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="46" t="s">
         <v>219</v>
       </c>
@@ -4205,30 +4396,30 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="46"/>
       <c r="C24" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C25" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C26" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="46"/>
       <c r="C27" s="49" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="46" t="s">
         <v>221</v>
       </c>
@@ -4236,64 +4427,55 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="46"/>
       <c r="C30" s="49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C31" s="49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C32" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="46"/>
       <c r="C33" s="49" t="s">
         <v>238</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
@@ -4325,7 +4507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>258</v>
       </c>
@@ -4357,8 +4539,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="46" t="s">
         <v>182</v>
       </c>
@@ -4368,18 +4550,18 @@
       <c r="D8" s="46"/>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="46" t="s">
         <v>186</v>
       </c>
@@ -4387,18 +4569,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="46" t="s">
         <v>190</v>
       </c>
@@ -4406,18 +4588,18 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="46" t="s">
         <v>275</v>
       </c>
@@ -4425,18 +4607,18 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="46" t="s">
         <v>279</v>
       </c>
@@ -4444,20 +4626,20 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C27" s="48"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="46" t="s">
         <v>283</v>
       </c>
@@ -4465,34 +4647,29 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="46"/>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C31" s="48"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C35" s="48"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>